--- a/data/georgia_census/imereti/zestafoni/education_graduates.xlsx
+++ b/data/georgia_census/imereti/zestafoni/education_graduates.xlsx
@@ -1821,13 +1821,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A153913F-CA10-4EDF-B10E-A1D5A98ADDDE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B594F65C-0E5B-4D6F-9164-F4BDE2FA698C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373788AD-8A32-4F67-83CD-527AFFEAB3E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9D60418-9844-45CA-BE5A-DBD9FDF72355}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0D4DF51-8CB1-4ECD-896A-174A01CC6DF7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864D9DDF-6DC8-43AA-A743-A12A2C56F38C}"/>
 </file>